--- a/ms/final model output and tables/Final model output 19-6-20.xlsx
+++ b/ms/final model output and tables/Final model output 19-6-20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/final model output and tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A2372-538A-1645-B775-9E123A23FAB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB92023A-F52D-9D4A-BD97-3C38599FBEDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="760" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="38200" windowHeight="19700" xr2:uid="{5BDBDF95-A114-D34B-9842-3CB243171EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Intercept models" sheetId="1" r:id="rId1"/>
@@ -4007,7 +4007,7 @@
   <dimension ref="A1:AS39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AN36" sqref="AN36"/>
+      <selection activeCell="AN41" sqref="AN41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6288,31 +6288,31 @@
       <c r="AJ32" s="13">
         <v>16</v>
       </c>
-      <c r="AK32" s="19" t="s">
+      <c r="AK32" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AL32" s="19">
+      <c r="AL32" s="22">
         <v>0.33</v>
       </c>
-      <c r="AM32" s="30" t="s">
+      <c r="AM32" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="AN32" s="30" t="s">
+      <c r="AN32" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="AO32" s="19">
+      <c r="AO32" s="22">
         <v>1.73</v>
       </c>
-      <c r="AP32" s="19">
+      <c r="AP32" s="22">
         <v>0.09</v>
       </c>
-      <c r="AQ32" s="37">
+      <c r="AQ32" s="13">
         <v>30</v>
       </c>
-      <c r="AR32" s="37">
+      <c r="AR32" s="13">
         <v>2</v>
       </c>
-      <c r="AS32" s="37">
+      <c r="AS32" s="13">
         <v>2</v>
       </c>
     </row>
